--- a/app/Licenciatura_em_Fisica_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Fisica_Pos_Laboral.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Aida Raimundo Zualo</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>Ana Lumbela</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110102003451B</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>Joana Maria Mecuche</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>100202729220N</t>
   </si>
   <si>
@@ -336,9 +327,6 @@
     <t>Angelica Especiosa Mandla</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Casado</t>
   </si>
   <si>
@@ -753,9 +741,6 @@
     <t>Maria Joaquim</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110504520162B</t>
   </si>
   <si>
@@ -826,9 +811,6 @@
   </si>
   <si>
     <t>Olga Roberto Tauzene</t>
-  </si>
-  <si>
-    <t>Distrito de Boane</t>
   </si>
   <si>
     <t>100102269451M</t>
@@ -2094,7 +2076,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2110,7 +2092,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2126,7 +2108,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2142,7 +2124,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2158,7 +2140,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2173,9 +2155,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2183,7 +2163,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2194,7 +2174,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2203,7 +2183,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2215,7 +2195,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2223,7 +2203,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2319,7 +2299,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2362,7 +2342,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2689,7 +2669,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2705,7 +2685,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2721,7 +2701,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2737,7 +2717,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2753,7 +2733,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2768,9 +2748,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2778,7 +2756,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2789,7 +2767,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2798,7 +2776,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2810,7 +2788,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2818,7 +2796,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2914,7 +2892,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2957,7 +2935,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3284,7 +3262,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3300,7 +3278,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3316,7 +3294,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3332,7 +3310,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3348,7 +3326,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3363,9 +3341,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3373,7 +3349,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3384,7 +3360,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3393,7 +3369,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3405,7 +3381,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3413,7 +3389,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3509,7 +3485,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3552,7 +3528,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3879,7 +3855,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3895,7 +3871,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3911,7 +3887,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3927,7 +3903,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3943,7 +3919,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3958,9 +3934,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3968,7 +3942,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3979,7 +3953,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3988,7 +3962,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4000,7 +3974,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4008,7 +3982,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4104,7 +4078,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4147,7 +4121,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4474,7 +4448,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4490,7 +4464,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4506,7 +4480,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4522,7 +4496,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4538,7 +4512,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4553,9 +4527,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4563,7 +4535,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4574,7 +4546,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4583,7 +4555,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4595,7 +4567,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4603,7 +4575,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4699,7 +4671,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4742,7 +4714,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5069,7 +5041,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5085,7 +5057,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5101,7 +5073,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5117,7 +5089,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5133,7 +5105,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5148,9 +5120,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5158,7 +5128,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5169,7 +5139,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5178,7 +5148,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5190,7 +5160,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5198,7 +5168,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5294,7 +5264,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5337,7 +5307,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5664,7 +5634,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5680,7 +5650,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5696,7 +5666,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5712,7 +5682,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5728,7 +5698,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5743,9 +5713,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5753,7 +5721,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5764,7 +5732,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5773,7 +5741,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5785,7 +5753,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5793,7 +5761,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5889,7 +5857,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5932,7 +5900,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6259,7 +6227,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6275,7 +6243,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6291,7 +6259,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6307,7 +6275,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6323,7 +6291,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6338,9 +6306,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6348,7 +6314,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6359,7 +6325,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6368,7 +6334,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6380,7 +6346,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6388,7 +6354,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6484,7 +6450,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6527,7 +6493,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6854,7 +6820,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6870,7 +6836,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6886,7 +6852,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6902,7 +6868,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6918,7 +6884,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6933,9 +6899,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6943,7 +6907,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6954,7 +6918,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6963,7 +6927,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6975,7 +6939,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7079,7 +7043,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7122,7 +7086,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7449,7 +7413,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7465,7 +7429,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7481,7 +7445,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7497,7 +7461,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7513,7 +7477,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7528,9 +7492,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7538,7 +7500,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7549,7 +7511,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7558,7 +7520,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7570,7 +7532,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7578,7 +7540,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7674,7 +7636,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7717,7 +7679,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8123,9 +8085,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8133,7 +8093,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8144,7 +8104,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8153,7 +8113,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8165,7 +8125,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8173,7 +8133,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8269,7 +8229,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8312,7 +8272,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8639,7 +8599,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8655,7 +8615,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8671,7 +8631,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8687,7 +8647,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8703,7 +8663,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8718,9 +8678,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8728,7 +8686,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8739,7 +8697,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8748,7 +8706,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8760,7 +8718,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8768,7 +8726,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8864,7 +8822,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8907,7 +8865,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9234,7 +9192,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9250,7 +9208,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9266,7 +9224,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9282,7 +9240,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9298,7 +9256,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9313,9 +9271,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9323,7 +9279,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9334,7 +9290,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9343,7 +9299,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9355,7 +9311,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9363,7 +9319,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9459,7 +9415,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9502,7 +9458,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9829,7 +9785,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9845,7 +9801,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9861,7 +9817,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9877,7 +9833,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9893,7 +9849,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9908,9 +9864,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9918,7 +9872,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9929,7 +9883,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9938,7 +9892,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9950,7 +9904,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9958,7 +9912,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10054,7 +10008,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10097,7 +10051,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10424,7 +10378,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10440,7 +10394,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10456,7 +10410,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10472,7 +10426,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10488,7 +10442,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10503,9 +10457,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10513,7 +10465,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10524,7 +10476,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10533,7 +10485,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10545,7 +10497,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10553,7 +10505,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10649,7 +10601,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10692,7 +10644,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11019,7 +10971,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11035,7 +10987,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11051,7 +11003,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11067,7 +11019,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11083,7 +11035,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11098,9 +11050,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11108,7 +11058,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11119,7 +11069,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11128,7 +11078,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11140,7 +11090,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11148,7 +11098,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11244,7 +11194,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11287,7 +11237,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11614,7 +11564,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11630,7 +11580,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11646,7 +11596,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11662,7 +11612,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11678,7 +11628,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11693,9 +11643,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>235</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11703,7 +11651,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11714,7 +11662,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11723,7 +11671,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11735,7 +11683,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11743,7 +11691,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11839,7 +11787,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11882,7 +11830,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12209,7 +12157,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12225,7 +12173,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12241,7 +12189,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12257,7 +12205,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12273,7 +12221,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12288,9 +12236,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12298,7 +12244,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12309,7 +12255,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12318,7 +12264,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12330,7 +12276,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12434,7 +12380,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12477,7 +12423,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12804,7 +12750,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12820,7 +12766,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12836,7 +12782,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12852,7 +12798,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12868,7 +12814,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12883,9 +12829,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12893,7 +12837,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12904,7 +12848,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12913,7 +12857,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12925,7 +12869,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13029,7 +12973,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13072,7 +13016,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13399,7 +13343,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13415,7 +13359,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13431,7 +13375,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13447,7 +13391,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13463,7 +13407,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13478,9 +13422,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13488,7 +13430,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13499,7 +13441,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13508,7 +13450,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13520,7 +13462,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13528,7 +13470,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13624,7 +13566,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13667,7 +13609,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13994,7 +13936,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14010,7 +13952,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14026,7 +13968,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14042,7 +13984,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14058,7 +14000,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14073,9 +14015,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>260</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14083,7 +14023,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14094,7 +14034,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14103,7 +14043,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14115,7 +14055,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14123,7 +14063,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14219,7 +14159,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14262,7 +14202,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14589,7 +14529,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14605,7 +14545,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14621,7 +14561,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14637,7 +14577,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14653,7 +14593,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14668,9 +14608,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14678,7 +14616,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14689,7 +14627,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14698,7 +14636,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14710,7 +14648,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14718,7 +14656,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14814,7 +14752,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14857,7 +14795,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15240,7 +15178,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15256,7 +15194,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15272,7 +15210,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15288,7 +15226,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15304,7 +15242,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15319,9 +15257,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15329,7 +15265,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15340,7 +15276,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15349,7 +15285,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15361,7 +15297,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15369,7 +15305,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15465,7 +15401,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15508,7 +15444,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15835,7 +15771,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15851,7 +15787,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15867,7 +15803,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15883,7 +15819,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15899,7 +15835,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15914,9 +15850,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15924,7 +15858,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15935,7 +15869,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15944,7 +15878,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15956,7 +15890,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15964,7 +15898,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16060,7 +15994,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16103,7 +16037,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16430,7 +16364,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16446,7 +16380,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16462,7 +16396,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16478,7 +16412,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16494,7 +16428,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16509,9 +16443,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16519,7 +16451,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16530,7 +16462,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16539,7 +16471,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16551,7 +16483,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16559,7 +16491,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16655,7 +16587,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16698,7 +16630,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17025,7 +16957,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17041,7 +16973,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17057,7 +16989,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17073,7 +17005,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17089,7 +17021,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17104,9 +17036,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17114,7 +17044,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17125,7 +17055,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17134,7 +17064,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17146,7 +17076,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17154,7 +17084,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17250,7 +17180,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17293,7 +17223,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17620,7 +17550,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17636,7 +17566,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17652,7 +17582,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17668,7 +17598,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17684,7 +17614,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17699,9 +17629,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17709,7 +17637,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17720,7 +17648,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17729,7 +17657,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17741,7 +17669,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17749,7 +17677,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17845,7 +17773,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17888,7 +17816,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18215,7 +18143,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18231,7 +18159,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18247,7 +18175,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18263,7 +18191,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18279,7 +18207,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18294,9 +18222,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18304,7 +18230,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18315,7 +18241,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18324,7 +18250,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18336,7 +18262,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18344,7 +18270,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18440,7 +18366,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18483,7 +18409,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
